--- a/BDjobs Test Case/BD jobs test case.xlsx
+++ b/BDjobs Test Case/BD jobs test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\OneDrive\Documents\GitHub\SQA-Projects\BDjobs Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D785EC5-D0F3-4EFB-8030-E8AE2F90CFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD392470-880F-4DD9-8BC3-A0A7DF6D80FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9A0A30-FFEF-4CBB-A556-33C07754941F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -155,9 +155,6 @@
     <t>BDJ_027</t>
   </si>
   <si>
-    <t>BDJ_028</t>
-  </si>
-  <si>
     <t>Test Module</t>
   </si>
   <si>
@@ -388,6 +385,13 @@
   </si>
   <si>
     <t>CjVAs3921111</t>
+  </si>
+  <si>
+    <t>Check if password &amp; confirm password field allow unmatched entries.</t>
+  </si>
+  <si>
+    <t>password= CjVAs391
+confirm password CjVAs39</t>
   </si>
 </sst>
 </file>
@@ -600,7 +604,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,9 +665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -679,13 +680,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -695,6 +690,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -724,10 +722,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,10 +1044,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1077,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>6</v>
@@ -1111,178 +1105,178 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="21" t="s">
+      <c r="F7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="F9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1313,28 +1307,28 @@
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1344,27 +1338,27 @@
         <v>4</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1377,104 +1371,104 @@
       <c r="B13" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="21" t="s">
+      <c r="G13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="21" t="s">
+      <c r="G15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="G16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1485,319 +1479,326 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>82</v>
+      <c r="J18" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="H19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1629824775</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="21">
-        <v>1629824775</v>
-      </c>
-      <c r="G20" s="22" t="s">
+      <c r="H20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="21" t="s">
+      <c r="F23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="35"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="35"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="G25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="21"/>
+      <c r="I25" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="20"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="35"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="G26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="20"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="35"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="20"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="35"/>
-      <c r="D29" s="21" t="s">
+    <row r="29" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="34"/>
+      <c r="D29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="20"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="36"/>
-      <c r="D30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -1935,19 +1936,10 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E43" s="7"/>
       <c r="M43" s="7"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
@@ -1957,10 +1949,19 @@
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -1971,24 +1972,12 @@
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C23:C29"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="C11:C16"/>
   </mergeCells>
@@ -2014,23 +2003,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0cd0ca51-634b-4c8c-8258-fd97178144e2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFC0751D8620FD4E97C26944853E7989" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd1903db146f69e5ce25a40f7bef9da4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="12cc8c66-8852-41bc-be7c-b9ba7b1bccff" xmlns:ns4="0cd0ca51-634b-4c8c-8258-fd97178144e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f711a9b99a66f7a5147c02776f8d938" ns3:_="" ns4:_="">
     <xsd:import namespace="12cc8c66-8852-41bc-be7c-b9ba7b1bccff"/>
@@ -2277,32 +2249,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60282FFC-B96D-48BB-9722-9BEFB602CD1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0cd0ca51-634b-4c8c-8258-fd97178144e2"/>
-    <ds:schemaRef ds:uri="12cc8c66-8852-41bc-be7c-b9ba7b1bccff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A7A5CFA-D533-4D29-987E-148DC3D06B91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0cd0ca51-634b-4c8c-8258-fd97178144e2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{255F4B2C-D209-49AF-A238-88EC1A4A3E23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2319,4 +2283,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A7A5CFA-D533-4D29-987E-148DC3D06B91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60282FFC-B96D-48BB-9722-9BEFB602CD1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0cd0ca51-634b-4c8c-8258-fd97178144e2"/>
+    <ds:schemaRef ds:uri="12cc8c66-8852-41bc-be7c-b9ba7b1bccff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BDjobs Test Case/BD jobs test case.xlsx
+++ b/BDjobs Test Case/BD jobs test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\OneDrive\Documents\GitHub\SQA-Projects\BDjobs Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD392470-880F-4DD9-8BC3-A0A7DF6D80FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45FBA55-B748-4559-80ED-EFE848618A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9A0A30-FFEF-4CBB-A556-33C07754941F}"/>
   </bookViews>
@@ -1997,12 +1997,21 @@
     <hyperlink ref="J26" r:id="rId12" xr:uid="{569A8DBE-B6B1-4381-A85C-D06DC3CF91CF}"/>
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" scale="72" fitToWidth="0" orientation="landscape" r:id="rId13"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="72" orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFC0751D8620FD4E97C26944853E7989" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd1903db146f69e5ce25a40f7bef9da4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="12cc8c66-8852-41bc-be7c-b9ba7b1bccff" xmlns:ns4="0cd0ca51-634b-4c8c-8258-fd97178144e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f711a9b99a66f7a5147c02776f8d938" ns3:_="" ns4:_="">
     <xsd:import namespace="12cc8c66-8852-41bc-be7c-b9ba7b1bccff"/>
@@ -2249,15 +2258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2267,6 +2267,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A7A5CFA-D533-4D29-987E-148DC3D06B91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{255F4B2C-D209-49AF-A238-88EC1A4A3E23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2281,14 +2289,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A7A5CFA-D533-4D29-987E-148DC3D06B91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
